--- a/va_facility_data_2025-02-20/Raeford Road VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Raeford%20Road%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Raeford Road VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Raeford%20Road%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2c2c4c022227452082c0fa468ecd03aa"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R66d2fba501a54522b9b52212e8f5910b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R02a82da43e0b4c819f977f86d0cbca69"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R3e9f00507a6745c0b0db8f01b09b9f60"/>
   </x:sheets>
 </x:workbook>
 </file>
